--- a/Data/Antechinus_cranialvariation_data.xlsx
+++ b/Data/Antechinus_cranialvariation_data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$252</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="584">
   <si>
     <t>Species</t>
   </si>
@@ -1831,6 +1831,9 @@
   </si>
   <si>
     <t>Gambubal section Main Range Nat. Park SEQ 28°13'38.7"S 152°25'32.6"E</t>
+  </si>
+  <si>
+    <t>Location not clear</t>
   </si>
 </sst>
 </file>
@@ -2162,8 +2165,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2235,39 +2238,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
       <c r="G2">
-        <v>-28.466999999999999</v>
+        <v>-35.450000000000003</v>
       </c>
       <c r="H2">
-        <v>153.233</v>
+        <v>150.26669999999999</v>
       </c>
       <c r="I2">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>382</v>
+        <v>236</v>
       </c>
       <c r="K2" s="1">
-        <v>30762</v>
+        <v>27348</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -2276,18 +2279,18 @@
         <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -2296,22 +2299,22 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="G3">
-        <v>-28.233000000000001</v>
+        <v>-35.333300000000001</v>
       </c>
       <c r="H3">
-        <v>152.267</v>
+        <v>150.0667</v>
       </c>
       <c r="I3">
-        <v>563</v>
-      </c>
-      <c r="J3" t="s">
-        <v>348</v>
+        <v>680</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="K3" s="1">
-        <v>24882</v>
+        <v>27149</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -2320,7 +2323,7 @@
         <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>430</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -2331,40 +2334,37 @@
         <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G4">
-        <v>-35.450000000000003</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="H4">
-        <v>150.26669999999999</v>
+        <v>150.2167</v>
       </c>
       <c r="I4">
-        <v>102</v>
+        <v>719</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K4" s="1">
-        <v>27348</v>
+        <v>23433</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -2375,40 +2375,37 @@
         <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G5">
-        <v>-35.333300000000001</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="H5">
-        <v>150.0667</v>
+        <v>150.2167</v>
       </c>
       <c r="I5">
-        <v>680</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>241</v>
+        <v>719</v>
+      </c>
+      <c r="J5" t="s">
+        <v>231</v>
       </c>
       <c r="K5" s="1">
-        <v>27149</v>
+        <v>23799</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -2521,13 +2518,13 @@
         <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="F9" t="s">
         <v>216</v>
@@ -2545,13 +2542,16 @@
         <v>231</v>
       </c>
       <c r="K9" s="1">
-        <v>23433</v>
+        <v>23799</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -2562,37 +2562,40 @@
         <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G10">
-        <v>-35.200000000000003</v>
+        <v>-35.183300000000003</v>
       </c>
       <c r="H10">
-        <v>150.2167</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="I10">
-        <v>719</v>
+        <v>643</v>
       </c>
       <c r="J10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K10" s="1">
-        <v>23799</v>
+        <v>27228</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
+      </c>
+      <c r="P10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -2603,31 +2606,31 @@
         <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>581</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G11">
-        <v>-35.200000000000003</v>
+        <v>-35.183300000000003</v>
       </c>
       <c r="H11">
-        <v>150.2167</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="I11">
-        <v>719</v>
+        <v>643</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K11" s="1">
-        <v>23799</v>
+        <v>27228</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -2636,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -2857,7 +2860,7 @@
         <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2866,7 +2869,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G18">
         <v>-35.183300000000003</v>
@@ -2881,7 +2884,7 @@
         <v>238</v>
       </c>
       <c r="K18" s="1">
-        <v>27228</v>
+        <v>27227</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -2936,7 +2939,7 @@
         <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2945,22 +2948,22 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G20">
-        <v>-35.183300000000003</v>
+        <v>-35.166699999999999</v>
       </c>
       <c r="H20">
-        <v>150.30000000000001</v>
+        <v>150.66669999999999</v>
       </c>
       <c r="I20">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K20" s="1">
-        <v>27228</v>
+        <v>27474</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -2969,7 +2972,7 @@
         <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -2980,31 +2983,31 @@
         <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G21">
-        <v>-35.183300000000003</v>
+        <v>-35.116700000000002</v>
       </c>
       <c r="H21">
-        <v>150.30000000000001</v>
+        <v>150.33330000000001</v>
       </c>
       <c r="I21">
-        <v>643</v>
+        <v>552</v>
       </c>
       <c r="J21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K21" s="1">
-        <v>27227</v>
+        <v>25606</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -3013,7 +3016,7 @@
         <v>17</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3024,40 +3027,37 @@
         <v>262</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="G22">
-        <v>-35.166699999999999</v>
+        <v>-35.116700000000002</v>
       </c>
       <c r="H22">
-        <v>150.66669999999999</v>
+        <v>150.33330000000001</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="J22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K22" s="1">
-        <v>27474</v>
+        <v>25606</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
-      </c>
-      <c r="P22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
         <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -3092,7 +3092,7 @@
         <v>239</v>
       </c>
       <c r="K23" s="1">
-        <v>25606</v>
+        <v>25607</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -3112,10 +3112,10 @@
         <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -3136,7 +3136,7 @@
         <v>239</v>
       </c>
       <c r="K24" s="1">
-        <v>25606</v>
+        <v>25607</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -3185,13 +3185,13 @@
         <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>581</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
         <v>210</v>
@@ -3216,9 +3216,6 @@
       </c>
       <c r="M26" t="s">
         <v>17</v>
-      </c>
-      <c r="P26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3261,10 +3258,10 @@
         <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -3302,7 +3299,7 @@
         <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3311,28 +3308,31 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G29">
         <v>-35.116700000000002</v>
       </c>
       <c r="H29">
-        <v>150.33330000000001</v>
+        <v>150.35</v>
       </c>
       <c r="I29">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K29" s="1">
-        <v>25607</v>
+        <v>27185</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
+      </c>
+      <c r="P29" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3343,31 +3343,31 @@
         <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G30">
-        <v>-35.116700000000002</v>
+        <v>-34.9833</v>
       </c>
       <c r="H30">
-        <v>150.33330000000001</v>
+        <v>150.73330000000001</v>
       </c>
       <c r="I30">
-        <v>552</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K30" s="1">
-        <v>25607</v>
+        <v>32201</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -3460,7 +3460,7 @@
         <v>262</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -3469,31 +3469,28 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G33">
-        <v>-35.116700000000002</v>
+        <v>-34.9833</v>
       </c>
       <c r="H33">
-        <v>150.35</v>
+        <v>150.73330000000001</v>
       </c>
       <c r="I33">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K33" s="1">
-        <v>27185</v>
+        <v>32201</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
-      </c>
-      <c r="P33" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3504,7 +3501,7 @@
         <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -3513,7 +3510,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G34">
         <v>-34.9833</v>
@@ -3528,7 +3525,7 @@
         <v>233</v>
       </c>
       <c r="K34" s="1">
-        <v>32201</v>
+        <v>32199</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -3545,7 +3542,7 @@
         <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -3554,22 +3551,22 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G35">
-        <v>-34.9833</v>
+        <v>-34.791699999999999</v>
       </c>
       <c r="H35">
-        <v>150.73330000000001</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>542</v>
       </c>
       <c r="J35" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K35" s="1">
-        <v>32201</v>
+        <v>33710</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -3586,37 +3583,40 @@
         <v>262</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G36">
-        <v>-34.9833</v>
+        <v>-34.683300000000003</v>
       </c>
       <c r="H36">
         <v>150.73330000000001</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>595</v>
       </c>
       <c r="J36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K36" s="1">
-        <v>32199</v>
+        <v>24153</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
+      </c>
+      <c r="P36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3627,37 +3627,40 @@
         <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G37">
-        <v>-34.791699999999999</v>
+        <v>-34.466700000000003</v>
       </c>
       <c r="H37">
-        <v>148.69999999999999</v>
+        <v>150.7833</v>
       </c>
       <c r="I37">
-        <v>542</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K37" s="1">
-        <v>33710</v>
+        <v>24127</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
+      </c>
+      <c r="P37" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3668,40 +3671,37 @@
         <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>581</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G38">
-        <v>-34.683300000000003</v>
+        <v>-34.466700000000003</v>
       </c>
       <c r="H38">
-        <v>150.73330000000001</v>
+        <v>150.7833</v>
       </c>
       <c r="I38">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="J38" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K38" s="1">
-        <v>24153</v>
+        <v>24277</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
         <v>17</v>
-      </c>
-      <c r="P38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3712,40 +3712,37 @@
         <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G39">
-        <v>-34.466700000000003</v>
+        <v>-34.4</v>
       </c>
       <c r="H39">
-        <v>150.7833</v>
+        <v>150.48330000000001</v>
       </c>
       <c r="I39">
-        <v>32</v>
+        <v>640</v>
       </c>
       <c r="J39" t="s">
-        <v>231</v>
-      </c>
-      <c r="K39" s="1">
-        <v>24127</v>
+        <v>234</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
-      </c>
-      <c r="P39" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3756,31 +3753,31 @@
         <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G40">
-        <v>-34.466700000000003</v>
+        <v>-34.4</v>
       </c>
       <c r="H40">
-        <v>150.7833</v>
+        <v>150.48330000000001</v>
       </c>
       <c r="I40">
-        <v>32</v>
+        <v>640</v>
       </c>
       <c r="J40" t="s">
-        <v>231</v>
-      </c>
-      <c r="K40" s="1">
-        <v>24277</v>
+        <v>234</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -3797,10 +3794,10 @@
         <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -3818,7 +3815,7 @@
         <v>640</v>
       </c>
       <c r="J41" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="K41" t="s">
         <v>28</v>
@@ -3838,37 +3835,40 @@
         <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G42">
         <v>-34.4</v>
       </c>
       <c r="H42">
-        <v>150.48330000000001</v>
+        <v>150.8167</v>
       </c>
       <c r="I42">
-        <v>640</v>
+        <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>234</v>
-      </c>
-      <c r="K42" t="s">
-        <v>28</v>
+        <v>231</v>
+      </c>
+      <c r="K42" s="1">
+        <v>24127</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
+      </c>
+      <c r="P42" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3879,7 +3879,7 @@
         <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -3888,28 +3888,31 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G43">
-        <v>-34.4</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="H43">
-        <v>150.48330000000001</v>
+        <v>149.6833</v>
       </c>
       <c r="I43">
-        <v>640</v>
+        <v>888</v>
       </c>
       <c r="J43" t="s">
-        <v>246</v>
-      </c>
-      <c r="K43" t="s">
-        <v>28</v>
+        <v>243</v>
+      </c>
+      <c r="K43" s="1">
+        <v>33604</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
         <v>17</v>
+      </c>
+      <c r="P43" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3917,34 +3920,34 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="G44">
-        <v>-34.4</v>
+        <v>-34.133000000000003</v>
       </c>
       <c r="H44">
-        <v>150.8167</v>
+        <v>151</v>
       </c>
       <c r="I44">
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="J44" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="K44" s="1">
-        <v>24127</v>
+        <v>11908</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -3953,7 +3956,7 @@
         <v>17</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -3964,31 +3967,31 @@
         <v>262</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="F45" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G45">
-        <v>-34.299999999999997</v>
+        <v>-34.1</v>
       </c>
       <c r="H45">
-        <v>149.6833</v>
+        <v>150.8167</v>
       </c>
       <c r="I45">
-        <v>888</v>
+        <v>139</v>
       </c>
       <c r="J45" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="K45" s="1">
-        <v>33604</v>
+        <v>25592</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -3997,7 +4000,7 @@
         <v>17</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4005,34 +4008,34 @@
         <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="F46" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46">
+        <v>-34.1</v>
+      </c>
+      <c r="H46">
+        <v>150.8167</v>
+      </c>
+      <c r="I46">
         <v>139</v>
       </c>
-      <c r="G46">
-        <v>-34.133000000000003</v>
-      </c>
-      <c r="H46">
-        <v>151</v>
-      </c>
-      <c r="I46">
-        <v>149</v>
-      </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="K46" s="1">
-        <v>11908</v>
+        <v>25592</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -4041,7 +4044,7 @@
         <v>17</v>
       </c>
       <c r="P46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4052,13 +4055,13 @@
         <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>581</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
         <v>228</v>
@@ -4085,7 +4088,7 @@
         <v>17</v>
       </c>
       <c r="P47" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4169,34 +4172,34 @@
         <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50">
+        <v>-33.482999999999997</v>
+      </c>
+      <c r="H50">
+        <v>150.46700000000001</v>
+      </c>
+      <c r="I50">
+        <v>639</v>
+      </c>
+      <c r="J50" t="s">
         <v>28</v>
       </c>
-      <c r="E50" t="s">
-        <v>581</v>
-      </c>
-      <c r="F50" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50">
-        <v>-34.1</v>
-      </c>
-      <c r="H50">
-        <v>150.8167</v>
-      </c>
-      <c r="I50">
-        <v>139</v>
-      </c>
-      <c r="J50" t="s">
-        <v>233</v>
-      </c>
       <c r="K50" s="1">
-        <v>25592</v>
+        <v>16246</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -4213,43 +4216,40 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51">
+        <v>-33.482999999999997</v>
+      </c>
+      <c r="H51">
+        <v>150.46700000000001</v>
+      </c>
+      <c r="I51">
+        <v>639</v>
+      </c>
+      <c r="J51" t="s">
         <v>28</v>
       </c>
-      <c r="E51" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" t="s">
-        <v>228</v>
-      </c>
-      <c r="G51">
-        <v>-34.1</v>
-      </c>
-      <c r="H51">
-        <v>150.8167</v>
-      </c>
-      <c r="I51">
-        <v>139</v>
-      </c>
-      <c r="J51" t="s">
-        <v>233</v>
-      </c>
       <c r="K51" s="1">
-        <v>25592</v>
+        <v>16249</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
-      </c>
-      <c r="P51" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4260,40 +4260,37 @@
         <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G52">
-        <v>-33.482999999999997</v>
+        <v>-33.383000000000003</v>
       </c>
       <c r="H52">
-        <v>150.46700000000001</v>
+        <v>150.167</v>
       </c>
       <c r="I52">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="1">
-        <v>16246</v>
+        <v>28672</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
-      </c>
-      <c r="P52" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4304,7 +4301,7 @@
         <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -4313,22 +4310,22 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G53">
-        <v>-33.482999999999997</v>
+        <v>-33.366999999999997</v>
       </c>
       <c r="H53">
-        <v>150.46700000000001</v>
+        <v>150.21700000000001</v>
       </c>
       <c r="I53">
-        <v>639</v>
+        <v>746</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
       </c>
       <c r="K53" s="1">
-        <v>16249</v>
+        <v>28672</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -4415,7 +4412,7 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -4424,28 +4421,31 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G56">
-        <v>-33.383000000000003</v>
+        <v>-33.283000000000001</v>
       </c>
       <c r="H56">
-        <v>150.167</v>
+        <v>150.333</v>
       </c>
       <c r="I56">
-        <v>564</v>
+        <v>865</v>
       </c>
       <c r="J56" t="s">
         <v>28</v>
       </c>
       <c r="K56" s="1">
-        <v>28672</v>
+        <v>28730</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
         <v>17</v>
+      </c>
+      <c r="P56" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4654,7 +4654,7 @@
         <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -4663,22 +4663,22 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G63">
-        <v>-33.366999999999997</v>
+        <v>-33.267000000000003</v>
       </c>
       <c r="H63">
-        <v>150.21700000000001</v>
+        <v>150.333</v>
       </c>
       <c r="I63">
-        <v>746</v>
+        <v>865</v>
       </c>
       <c r="J63" t="s">
         <v>28</v>
       </c>
       <c r="K63" s="1">
-        <v>28672</v>
+        <v>28730</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -4692,10 +4692,10 @@
         <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -4704,31 +4704,28 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="G64">
-        <v>-33.283000000000001</v>
+        <v>-32.7333</v>
       </c>
       <c r="H64">
-        <v>150.333</v>
+        <v>152.08330000000001</v>
       </c>
       <c r="I64">
-        <v>865</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K64" s="1">
-        <v>28730</v>
+        <v>24876</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
-      </c>
-      <c r="P64" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4736,34 +4733,34 @@
         <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="G65">
-        <v>-33.267000000000003</v>
+        <v>-32.7333</v>
       </c>
       <c r="H65">
-        <v>150.333</v>
+        <v>152.08330000000001</v>
       </c>
       <c r="I65">
-        <v>865</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K65" s="1">
-        <v>28730</v>
+        <v>24904</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -4780,10 +4777,10 @@
         <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -4804,7 +4801,7 @@
         <v>231</v>
       </c>
       <c r="K66" s="1">
-        <v>24876</v>
+        <v>25317</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -4821,31 +4818,31 @@
         <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G67">
-        <v>-32.7333</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="H67">
         <v>152.08330000000001</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>231</v>
       </c>
       <c r="K67" s="1">
-        <v>24904</v>
+        <v>24880</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -4859,10 +4856,10 @@
         <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
         <v>25</v>
@@ -4871,22 +4868,22 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="G68">
-        <v>-32.7333</v>
+        <v>-32.5</v>
       </c>
       <c r="H68">
-        <v>152.08330000000001</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J68" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="K68" s="1">
-        <v>25317</v>
+        <v>8282</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -4900,34 +4897,34 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="G69">
-        <v>-32.700000000000003</v>
+        <v>-32.5</v>
       </c>
       <c r="H69">
-        <v>152.08330000000001</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J69" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="K69" s="1">
-        <v>24880</v>
+        <v>8282</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -4944,10 +4941,10 @@
         <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -4965,10 +4962,10 @@
         <v>8</v>
       </c>
       <c r="J70" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="K70" s="1">
-        <v>8282</v>
+        <v>8283</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -5254,31 +5251,31 @@
         <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G78">
-        <v>-32.5</v>
+        <v>-32.4</v>
       </c>
       <c r="H78">
-        <v>152.30000000000001</v>
+        <v>152.43299999999999</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
       </c>
       <c r="K78" s="1">
-        <v>8282</v>
+        <v>26574</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -5292,10 +5289,10 @@
         <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -5304,28 +5301,31 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G79">
-        <v>-32.5</v>
+        <v>-30.632000000000001</v>
       </c>
       <c r="H79">
-        <v>152.30000000000001</v>
+        <v>152.197</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>941</v>
       </c>
       <c r="J79" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="K79" s="1">
-        <v>8283</v>
+        <v>41774</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
       </c>
       <c r="M79" t="s">
         <v>17</v>
+      </c>
+      <c r="P79" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -5333,40 +5333,43 @@
         <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G80">
-        <v>-32.4</v>
+        <v>-30.497</v>
       </c>
       <c r="H80">
-        <v>152.43299999999999</v>
+        <v>152.399</v>
       </c>
       <c r="I80">
-        <v>13</v>
+        <v>1393</v>
       </c>
       <c r="J80" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="K80" s="1">
-        <v>26574</v>
+        <v>41774</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
+      </c>
+      <c r="P80" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -5800,39 +5803,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
         <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>365</v>
+        <v>99</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>366</v>
+        <v>98</v>
       </c>
       <c r="G91">
-        <v>-28.233000000000001</v>
+        <v>-28.861999999999998</v>
       </c>
       <c r="H91">
-        <v>153.25</v>
+        <v>152.03200000000001</v>
       </c>
       <c r="I91">
-        <v>741</v>
+        <v>287</v>
       </c>
       <c r="J91" t="s">
-        <v>367</v>
+        <v>100</v>
       </c>
       <c r="K91" s="1">
-        <v>36668</v>
+        <v>37362</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -5840,16 +5843,19 @@
       <c r="M91" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
         <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="D92" t="s">
         <v>25</v>
@@ -5858,22 +5864,22 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="G92">
-        <v>-28.228000000000002</v>
+        <v>-28.832999999999998</v>
       </c>
       <c r="H92">
-        <v>153.27799999999999</v>
+        <v>151.94999999999999</v>
       </c>
       <c r="I92">
-        <v>741</v>
+        <v>1009</v>
       </c>
       <c r="J92" t="s">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="K92" s="1">
-        <v>26056</v>
+        <v>18826</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -5881,8 +5887,8 @@
       <c r="M92" t="s">
         <v>17</v>
       </c>
-      <c r="P92" t="s">
-        <v>422</v>
+      <c r="O92" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5890,34 +5896,34 @@
         <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>296</v>
+        <v>446</v>
       </c>
       <c r="G93">
-        <v>-28.218</v>
+        <v>-28.832999999999998</v>
       </c>
       <c r="H93">
-        <v>153.29599999999999</v>
+        <v>153.43299999999999</v>
       </c>
       <c r="I93">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="J93" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="K93" s="1">
-        <v>26123</v>
+        <v>33039</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -5926,18 +5932,18 @@
         <v>17</v>
       </c>
       <c r="P93" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>263</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
@@ -5946,22 +5952,22 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>447</v>
       </c>
       <c r="G94">
-        <v>-28.216999999999999</v>
+        <v>-28.632999999999999</v>
       </c>
       <c r="H94">
-        <v>152.03299999999999</v>
+        <v>153.31700000000001</v>
       </c>
       <c r="I94">
-        <v>467</v>
+        <v>172</v>
       </c>
       <c r="J94" t="s">
-        <v>348</v>
+        <v>28</v>
       </c>
       <c r="K94" s="1">
-        <v>25386</v>
+        <v>33832</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -5969,19 +5975,16 @@
       <c r="M94" t="s">
         <v>17</v>
       </c>
-      <c r="P94" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C95" t="s">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
         <v>25</v>
@@ -5990,22 +5993,22 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="G95">
-        <v>-28.216999999999999</v>
+        <v>-28.566700000000001</v>
       </c>
       <c r="H95">
-        <v>152.03299999999999</v>
+        <v>153.3356</v>
       </c>
       <c r="I95">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="J95" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="K95" s="1">
-        <v>25386</v>
+        <v>34824</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -6013,52 +6016,46 @@
       <c r="M95" t="s">
         <v>17</v>
       </c>
-      <c r="P95" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="F96" t="s">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="G96">
-        <v>-28.216999999999999</v>
+        <v>-28.565000000000001</v>
       </c>
       <c r="H96">
-        <v>152.03299999999999</v>
+        <v>153.3364</v>
       </c>
       <c r="I96">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="J96" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="K96" s="1">
-        <v>25386</v>
+        <v>34822</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
-      </c>
-      <c r="P96" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -6069,31 +6066,31 @@
         <v>116</v>
       </c>
       <c r="C97" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="G97">
-        <v>-28.216999999999999</v>
+        <v>-28.466999999999999</v>
       </c>
       <c r="H97">
         <v>153.233</v>
       </c>
       <c r="I97">
-        <v>467</v>
+        <v>146</v>
       </c>
       <c r="J97" t="s">
-        <v>363</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>364</v>
+        <v>382</v>
+      </c>
+      <c r="K97" s="1">
+        <v>30762</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -6102,18 +6099,18 @@
         <v>17</v>
       </c>
       <c r="P97" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="D98" t="s">
         <v>25</v>
@@ -6122,22 +6119,22 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="G98">
-        <v>-28.216999999999999</v>
+        <v>-28.466699999999999</v>
       </c>
       <c r="H98">
-        <v>153.233</v>
+        <v>153.16669999999999</v>
       </c>
       <c r="I98">
-        <v>467</v>
+        <v>195</v>
       </c>
       <c r="J98" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="K98" s="1">
-        <v>36712</v>
+        <v>25410</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -6146,15 +6143,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>368</v>
+        <v>175</v>
       </c>
       <c r="D99" t="s">
         <v>25</v>
@@ -6163,22 +6160,22 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>369</v>
+        <v>222</v>
       </c>
       <c r="G99">
-        <v>-28.1</v>
+        <v>-28.466699999999999</v>
       </c>
       <c r="H99">
-        <v>153.44999999999999</v>
+        <v>153.16669999999999</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="J99" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="K99" s="1">
-        <v>25755</v>
+        <v>25411</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -6186,43 +6183,40 @@
       <c r="M99" t="s">
         <v>17</v>
       </c>
-      <c r="P99" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>394</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="G100">
-        <v>-27.966999999999999</v>
+        <v>-28.466699999999999</v>
       </c>
       <c r="H100">
-        <v>153.167</v>
+        <v>153.16669999999999</v>
       </c>
       <c r="I100">
-        <v>411</v>
+        <v>195</v>
       </c>
       <c r="J100" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="K100" s="1">
-        <v>36596</v>
+        <v>25635</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -6231,15 +6225,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
         <v>116</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
         <v>25</v>
@@ -6248,22 +6242,22 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>389</v>
+        <v>71</v>
       </c>
       <c r="G101">
-        <v>-27.382999999999999</v>
+        <v>-28.417000000000002</v>
       </c>
       <c r="H101">
-        <v>152.78299999999999</v>
+        <v>153.233</v>
       </c>
       <c r="I101">
-        <v>457</v>
+        <v>203</v>
       </c>
       <c r="J101" t="s">
-        <v>390</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>391</v>
+        <v>28</v>
+      </c>
+      <c r="K101" s="1">
+        <v>28327</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -6271,16 +6265,19 @@
       <c r="M101" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O101" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="D102" t="s">
         <v>25</v>
@@ -6289,22 +6286,22 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="G102">
-        <v>-27.382999999999999</v>
+        <v>-28.4</v>
       </c>
       <c r="H102">
-        <v>152.78299999999999</v>
+        <v>153.017</v>
       </c>
       <c r="I102">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="J102" t="s">
-        <v>390</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>391</v>
+        <v>28</v>
+      </c>
+      <c r="K102" s="1">
+        <v>33096</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -6318,10 +6315,10 @@
         <v>263</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>287</v>
+        <v>444</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -6330,22 +6327,22 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>279</v>
+        <v>445</v>
       </c>
       <c r="G103">
-        <v>-27.332999999999998</v>
+        <v>-28.4</v>
       </c>
       <c r="H103">
-        <v>152.767</v>
+        <v>153.017</v>
       </c>
       <c r="I103">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="J103" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="K103" s="1">
-        <v>21988</v>
+        <v>33096</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -6354,59 +6351,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" t="s">
+        <v>440</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>445</v>
+      </c>
+      <c r="G104">
+        <v>-28.4</v>
+      </c>
+      <c r="H104">
+        <v>153.017</v>
+      </c>
+      <c r="I104">
+        <v>537</v>
+      </c>
+      <c r="J104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" s="1">
+        <v>33096</v>
+      </c>
+      <c r="L104" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>117</v>
       </c>
-      <c r="B104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" t="s">
-        <v>98</v>
-      </c>
-      <c r="G104">
-        <v>-28.861999999999998</v>
-      </c>
-      <c r="H104">
-        <v>152.03200000000001</v>
-      </c>
-      <c r="I104">
-        <v>287</v>
-      </c>
-      <c r="J104" t="s">
-        <v>100</v>
-      </c>
-      <c r="K104" s="1">
-        <v>37362</v>
-      </c>
-      <c r="L104" t="s">
-        <v>17</v>
-      </c>
-      <c r="M104" t="s">
-        <v>17</v>
-      </c>
-      <c r="P104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>263</v>
-      </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -6415,22 +6412,22 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="G105">
-        <v>-27.332999999999998</v>
+        <v>-28.366700000000002</v>
       </c>
       <c r="H105">
-        <v>152.767</v>
+        <v>153</v>
       </c>
       <c r="I105">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="J105" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="K105" s="1">
-        <v>22599</v>
+        <v>22593</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -6439,39 +6436,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B106" t="s">
         <v>116</v>
       </c>
       <c r="C106" t="s">
-        <v>94</v>
+        <v>353</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
       <c r="G106">
-        <v>-28.832999999999998</v>
+        <v>-28.233000000000001</v>
       </c>
       <c r="H106">
-        <v>151.94999999999999</v>
+        <v>152.267</v>
       </c>
       <c r="I106">
-        <v>1009</v>
+        <v>563</v>
       </c>
       <c r="J106" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="K106" s="1">
-        <v>18826</v>
+        <v>24882</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -6479,11 +6476,11 @@
       <c r="M106" t="s">
         <v>17</v>
       </c>
-      <c r="O106" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P106" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -6491,7 +6488,7 @@
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="D107" t="s">
         <v>25</v>
@@ -6500,22 +6497,22 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="G107">
-        <v>-27.332999999999998</v>
+        <v>-28.233000000000001</v>
       </c>
       <c r="H107">
-        <v>152.767</v>
+        <v>153.25</v>
       </c>
       <c r="I107">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="J107" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="K107" s="1">
-        <v>22710</v>
+        <v>36668</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -6523,19 +6520,16 @@
       <c r="M107" t="s">
         <v>17</v>
       </c>
-      <c r="P107" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
         <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -6544,22 +6538,22 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="G108">
-        <v>-27.332999999999998</v>
+        <v>-28.233000000000001</v>
       </c>
       <c r="H108">
-        <v>152.767</v>
+        <v>153.25</v>
       </c>
       <c r="I108">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="J108" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="K108" s="1">
-        <v>23536</v>
+        <v>41146</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -6568,18 +6562,18 @@
         <v>17</v>
       </c>
       <c r="P108" t="s">
-        <v>420</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
@@ -6588,28 +6582,31 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="G109">
-        <v>-28.566700000000001</v>
+        <v>-28.228000000000002</v>
       </c>
       <c r="H109">
-        <v>153.3356</v>
+        <v>153.27799999999999</v>
       </c>
       <c r="I109">
-        <v>524</v>
+        <v>741</v>
       </c>
       <c r="J109" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="K109" s="1">
-        <v>34824</v>
+        <v>26056</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
+      </c>
+      <c r="P109" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -6617,51 +6614,54 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>582</v>
       </c>
       <c r="G110">
-        <v>-28.565000000000001</v>
+        <v>-28.227</v>
       </c>
       <c r="H110">
-        <v>153.3364</v>
+        <v>152.42599999999999</v>
       </c>
       <c r="I110">
-        <v>524</v>
+        <v>973</v>
       </c>
       <c r="J110" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="K110" s="1">
-        <v>34822</v>
+        <v>39578</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
+      </c>
+      <c r="P110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="D111" t="s">
         <v>25</v>
@@ -6670,39 +6670,42 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="G111">
-        <v>-28.466699999999999</v>
+        <v>-28.218</v>
       </c>
       <c r="H111">
-        <v>153.16669999999999</v>
+        <v>153.29599999999999</v>
       </c>
       <c r="I111">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="J111" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="K111" s="1">
-        <v>25410</v>
+        <v>26123</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
         <v>17</v>
+      </c>
+      <c r="P111" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
@@ -6711,39 +6714,42 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="G112">
-        <v>-28.466699999999999</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="H112">
-        <v>153.16669999999999</v>
+        <v>152.03299999999999</v>
       </c>
       <c r="I112">
-        <v>195</v>
+        <v>467</v>
       </c>
       <c r="J112" t="s">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="K112" s="1">
-        <v>25411</v>
+        <v>25386</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
         <v>17</v>
+      </c>
+      <c r="P112" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s">
         <v>25</v>
@@ -6752,28 +6758,31 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="G113">
-        <v>-28.466699999999999</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="H113">
-        <v>153.16669999999999</v>
+        <v>152.03299999999999</v>
       </c>
       <c r="I113">
-        <v>195</v>
+        <v>467</v>
       </c>
       <c r="J113" t="s">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="K113" s="1">
-        <v>25635</v>
+        <v>25386</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
         <v>17</v>
+      </c>
+      <c r="P113" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -6784,7 +6793,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -6793,22 +6802,22 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
       <c r="G114">
-        <v>-27.332999999999998</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="H114">
-        <v>152.767</v>
+        <v>152.03299999999999</v>
       </c>
       <c r="I114">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="J114" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="K114" s="1">
-        <v>23536</v>
+        <v>25386</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -6817,10 +6826,10 @@
         <v>17</v>
       </c>
       <c r="P114" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -6828,7 +6837,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
@@ -6837,22 +6846,22 @@
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="G115">
-        <v>-27.332999999999998</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="H115">
-        <v>152.767</v>
+        <v>153.233</v>
       </c>
       <c r="I115">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="J115" t="s">
-        <v>385</v>
-      </c>
-      <c r="K115" s="1">
-        <v>23509</v>
+        <v>363</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -6861,10 +6870,10 @@
         <v>17</v>
       </c>
       <c r="P115" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -6872,7 +6881,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="D116" t="s">
         <v>25</v>
@@ -6881,22 +6890,22 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="G116">
-        <v>-27.332999999999998</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="H116">
-        <v>152.767</v>
+        <v>153.233</v>
       </c>
       <c r="I116">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="J116" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="K116" s="1">
-        <v>25003</v>
+        <v>36712</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -6904,43 +6913,40 @@
       <c r="M116" t="s">
         <v>17</v>
       </c>
-      <c r="P116" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c r="G117">
-        <v>-27.332999999999998</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="H117">
-        <v>152.767</v>
+        <v>152.03299999999999</v>
       </c>
       <c r="I117">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="J117" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="K117" s="1">
-        <v>25003</v>
+        <v>25386</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -6948,19 +6954,22 @@
       <c r="M117" t="s">
         <v>17</v>
       </c>
+      <c r="O117" t="s">
+        <v>576</v>
+      </c>
       <c r="P117" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
@@ -6969,22 +6978,22 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G118">
-        <v>-27.332999999999998</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="H118">
-        <v>152.767</v>
+        <v>152.03299999999999</v>
       </c>
       <c r="I118">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="J118" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="K118" s="1">
-        <v>25003</v>
+        <v>25386</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -6992,11 +7001,14 @@
       <c r="M118" t="s">
         <v>17</v>
       </c>
+      <c r="O118" t="s">
+        <v>576</v>
+      </c>
       <c r="P118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>263</v>
       </c>
@@ -7004,7 +7016,7 @@
         <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
         <v>25</v>
@@ -7013,22 +7025,22 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="G119">
-        <v>-27.332999999999998</v>
+        <v>-28.1</v>
       </c>
       <c r="H119">
-        <v>152.767</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="I119">
-        <v>572</v>
+        <v>6</v>
       </c>
       <c r="J119" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="K119" s="1">
-        <v>25001</v>
+        <v>25755</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -7037,42 +7049,42 @@
         <v>17</v>
       </c>
       <c r="P119" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="G120">
-        <v>-27.332999999999998</v>
+        <v>-28.062000000000001</v>
       </c>
       <c r="H120">
-        <v>152.767</v>
+        <v>152.36699999999999</v>
       </c>
       <c r="I120">
-        <v>572</v>
+        <v>674</v>
       </c>
       <c r="J120" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="K120" s="1">
-        <v>35360</v>
+        <v>41037</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -7080,40 +7092,43 @@
       <c r="M120" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>116</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="G121">
-        <v>-27.332999999999998</v>
+        <v>-28.062000000000001</v>
       </c>
       <c r="H121">
-        <v>152.767</v>
+        <v>152.36699999999999</v>
       </c>
       <c r="I121">
-        <v>572</v>
+        <v>674</v>
       </c>
       <c r="J121" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="K121" s="1">
-        <v>26323</v>
+        <v>41037</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -7121,16 +7136,19 @@
       <c r="M121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
         <v>116</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>102</v>
       </c>
       <c r="D122" t="s">
         <v>25</v>
@@ -7139,22 +7157,22 @@
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="G122">
-        <v>-27.332999999999998</v>
+        <v>-27.988</v>
       </c>
       <c r="H122">
-        <v>152.767</v>
+        <v>152.36000000000001</v>
       </c>
       <c r="I122">
-        <v>572</v>
+        <v>936</v>
       </c>
       <c r="J122" t="s">
-        <v>357</v>
+        <v>104</v>
       </c>
       <c r="K122" s="1">
-        <v>27715</v>
+        <v>42881</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -7162,40 +7180,43 @@
       <c r="M122" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B123" t="s">
         <v>116</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="G123">
-        <v>-27.332999999999998</v>
+        <v>-27.981000000000002</v>
       </c>
       <c r="H123">
-        <v>152.767</v>
+        <v>152.34700000000001</v>
       </c>
       <c r="I123">
-        <v>572</v>
+        <v>710</v>
       </c>
       <c r="J123" t="s">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="K123" s="1">
-        <v>26922</v>
+        <v>41148</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -7203,40 +7224,43 @@
       <c r="M123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
         <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="G124">
-        <v>-27.332999999999998</v>
+        <v>-27.981000000000002</v>
       </c>
       <c r="H124">
-        <v>152.767</v>
+        <v>152.34700000000001</v>
       </c>
       <c r="I124">
-        <v>572</v>
+        <v>710</v>
       </c>
       <c r="J124" t="s">
-        <v>269</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>311</v>
+        <v>52</v>
+      </c>
+      <c r="K124" s="1">
+        <v>41148</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -7244,8 +7268,11 @@
       <c r="M124" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P124" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>263</v>
       </c>
@@ -7253,31 +7280,31 @@
         <v>116</v>
       </c>
       <c r="C125" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
       <c r="G125">
-        <v>-27.332999999999998</v>
+        <v>-27.966999999999999</v>
       </c>
       <c r="H125">
-        <v>152.767</v>
+        <v>153.167</v>
       </c>
       <c r="I125">
-        <v>572</v>
+        <v>411</v>
       </c>
       <c r="J125" t="s">
-        <v>269</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>311</v>
+        <v>396</v>
+      </c>
+      <c r="K125" s="1">
+        <v>36596</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -7286,15 +7313,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
         <v>116</v>
       </c>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="D126" t="s">
         <v>25</v>
@@ -7303,22 +7330,22 @@
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="G126">
-        <v>-27.332999999999998</v>
+        <v>-27.917000000000002</v>
       </c>
       <c r="H126">
-        <v>152.767</v>
+        <v>153.167</v>
       </c>
       <c r="I126">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="J126" t="s">
-        <v>269</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>311</v>
+        <v>81</v>
+      </c>
+      <c r="K126" s="1">
+        <v>8254</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -7326,8 +7353,14 @@
       <c r="M126" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O126" t="s">
+        <v>576</v>
+      </c>
+      <c r="P126" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>263</v>
       </c>
@@ -7335,7 +7368,7 @@
         <v>116</v>
       </c>
       <c r="C127" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
@@ -7344,22 +7377,22 @@
         <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
       <c r="G127">
-        <v>-27.332999999999998</v>
+        <v>-27.382999999999999</v>
       </c>
       <c r="H127">
-        <v>152.767</v>
+        <v>152.78299999999999</v>
       </c>
       <c r="I127">
-        <v>572</v>
+        <v>457</v>
       </c>
       <c r="J127" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -7368,7 +7401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>263</v>
       </c>
@@ -7376,7 +7409,7 @@
         <v>116</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="D128" t="s">
         <v>25</v>
@@ -7385,22 +7418,22 @@
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>285</v>
+        <v>401</v>
       </c>
       <c r="G128">
-        <v>-27.332999999999998</v>
+        <v>-27.382999999999999</v>
       </c>
       <c r="H128">
-        <v>152.767</v>
+        <v>152.78299999999999</v>
       </c>
       <c r="I128">
-        <v>572</v>
+        <v>457</v>
       </c>
       <c r="J128" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -7414,34 +7447,34 @@
         <v>117</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="D129" t="s">
         <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="F129" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="G129">
-        <v>-28.417000000000002</v>
+        <v>-27.333300000000001</v>
       </c>
       <c r="H129">
-        <v>153.233</v>
+        <v>152.76669999999999</v>
       </c>
       <c r="I129">
-        <v>203</v>
+        <v>572</v>
       </c>
       <c r="J129" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="K129" s="1">
-        <v>28327</v>
+        <v>23437</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -7449,8 +7482,8 @@
       <c r="M129" t="s">
         <v>17</v>
       </c>
-      <c r="O129" t="s">
-        <v>576</v>
+      <c r="P129" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7461,37 +7494,40 @@
         <v>262</v>
       </c>
       <c r="C130" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="F130" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G130">
-        <v>-28.366700000000002</v>
+        <v>-27.333300000000001</v>
       </c>
       <c r="H130">
-        <v>153</v>
+        <v>152.76669999999999</v>
       </c>
       <c r="I130">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="J130" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="K130" s="1">
-        <v>22593</v>
+        <v>23437</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
         <v>17</v>
+      </c>
+      <c r="P130" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -7502,16 +7538,16 @@
         <v>116</v>
       </c>
       <c r="C131" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="G131">
         <v>-27.332999999999998</v>
@@ -7523,19 +7559,16 @@
         <v>572</v>
       </c>
       <c r="J131" t="s">
-        <v>269</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="K131" s="1">
+        <v>21988</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
         <v>17</v>
-      </c>
-      <c r="P131" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
@@ -7546,16 +7579,16 @@
         <v>116</v>
       </c>
       <c r="C132" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G132">
         <v>-27.332999999999998</v>
@@ -7567,10 +7600,10 @@
         <v>572</v>
       </c>
       <c r="J132" t="s">
-        <v>269</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>286</v>
+        <v>324</v>
+      </c>
+      <c r="K132" s="1">
+        <v>22599</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -7579,7 +7612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -7587,7 +7620,7 @@
         <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
@@ -7596,7 +7629,7 @@
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G133">
         <v>-27.332999999999998</v>
@@ -7608,16 +7641,19 @@
         <v>572</v>
       </c>
       <c r="J133" t="s">
-        <v>269</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>286</v>
+        <v>305</v>
+      </c>
+      <c r="K133" s="1">
+        <v>22710</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
         <v>17</v>
+      </c>
+      <c r="P133" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
@@ -7628,7 +7664,7 @@
         <v>116</v>
       </c>
       <c r="C134" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -7637,7 +7673,7 @@
         <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G134">
         <v>-27.332999999999998</v>
@@ -7649,16 +7685,19 @@
         <v>572</v>
       </c>
       <c r="J134" t="s">
-        <v>269</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>286</v>
+        <v>244</v>
+      </c>
+      <c r="K134" s="1">
+        <v>23536</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
         <v>17</v>
+      </c>
+      <c r="P134" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
@@ -7669,16 +7708,16 @@
         <v>116</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G135">
         <v>-27.332999999999998</v>
@@ -7690,10 +7729,10 @@
         <v>572</v>
       </c>
       <c r="J135" t="s">
-        <v>269</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>286</v>
+        <v>244</v>
+      </c>
+      <c r="K135" s="1">
+        <v>23536</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -7701,8 +7740,11 @@
       <c r="M135" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P135" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -7710,7 +7752,7 @@
         <v>116</v>
       </c>
       <c r="C136" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
@@ -7719,7 +7761,7 @@
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G136">
         <v>-27.332999999999998</v>
@@ -7731,10 +7773,10 @@
         <v>572</v>
       </c>
       <c r="J136" t="s">
-        <v>269</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>286</v>
+        <v>385</v>
+      </c>
+      <c r="K136" s="1">
+        <v>23509</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -7742,8 +7784,11 @@
       <c r="M136" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>263</v>
       </c>
@@ -7751,7 +7796,7 @@
         <v>116</v>
       </c>
       <c r="C137" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D137" t="s">
         <v>25</v>
@@ -7760,7 +7805,7 @@
         <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G137">
         <v>-27.332999999999998</v>
@@ -7772,10 +7817,10 @@
         <v>572</v>
       </c>
       <c r="J137" t="s">
-        <v>292</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
+      </c>
+      <c r="K137" s="1">
+        <v>25003</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -7783,8 +7828,11 @@
       <c r="M137" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P137" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>263</v>
       </c>
@@ -7792,16 +7840,16 @@
         <v>116</v>
       </c>
       <c r="C138" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="D138" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="G138">
         <v>-27.332999999999998</v>
@@ -7813,10 +7861,10 @@
         <v>572</v>
       </c>
       <c r="J138" t="s">
-        <v>292</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>293</v>
+        <v>340</v>
+      </c>
+      <c r="K138" s="1">
+        <v>25003</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -7824,8 +7872,11 @@
       <c r="M138" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P138" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>263</v>
       </c>
@@ -7833,7 +7884,7 @@
         <v>116</v>
       </c>
       <c r="C139" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
@@ -7842,7 +7893,7 @@
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G139">
         <v>-27.332999999999998</v>
@@ -7854,10 +7905,10 @@
         <v>572</v>
       </c>
       <c r="J139" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="K139" s="1">
-        <v>26205</v>
+        <v>25003</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
@@ -7866,10 +7917,10 @@
         <v>17</v>
       </c>
       <c r="P139" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -7877,7 +7928,7 @@
         <v>116</v>
       </c>
       <c r="C140" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="D140" t="s">
         <v>25</v>
@@ -7886,7 +7937,7 @@
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G140">
         <v>-27.332999999999998</v>
@@ -7898,10 +7949,10 @@
         <v>572</v>
       </c>
       <c r="J140" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="K140" s="1">
-        <v>26205</v>
+        <v>25001</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
@@ -7910,7 +7961,7 @@
         <v>17</v>
       </c>
       <c r="P140" t="s">
-        <v>577</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
@@ -7921,16 +7972,16 @@
         <v>116</v>
       </c>
       <c r="C141" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G141">
         <v>-27.332999999999998</v>
@@ -7942,19 +7993,16 @@
         <v>572</v>
       </c>
       <c r="J141" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K141" s="1">
-        <v>26205</v>
+        <v>35360</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
         <v>17</v>
-      </c>
-      <c r="P141" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
@@ -7965,7 +8013,7 @@
         <v>116</v>
       </c>
       <c r="C142" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -7974,7 +8022,7 @@
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G142">
         <v>-27.332999999999998</v>
@@ -7989,7 +8037,7 @@
         <v>269</v>
       </c>
       <c r="K142" s="1">
-        <v>26205</v>
+        <v>26323</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
@@ -7997,11 +8045,8 @@
       <c r="M142" t="s">
         <v>17</v>
       </c>
-      <c r="P142" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>263</v>
       </c>
@@ -8009,16 +8054,16 @@
         <v>116</v>
       </c>
       <c r="C143" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="G143">
         <v>-27.332999999999998</v>
@@ -8030,10 +8075,10 @@
         <v>572</v>
       </c>
       <c r="J143" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="K143" s="1">
-        <v>26384</v>
+        <v>27715</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -8042,15 +8087,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B144" t="s">
         <v>116</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
@@ -8059,34 +8104,28 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G144">
-        <v>-28.216999999999999</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H144">
-        <v>152.03299999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I144">
-        <v>467</v>
+        <v>572</v>
       </c>
       <c r="J144" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="K144" s="1">
-        <v>25386</v>
+        <v>26922</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
         <v>17</v>
-      </c>
-      <c r="O144" t="s">
-        <v>576</v>
-      </c>
-      <c r="P144" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
@@ -8097,7 +8136,7 @@
         <v>116</v>
       </c>
       <c r="C145" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
@@ -8106,7 +8145,7 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G145">
         <v>-27.332999999999998</v>
@@ -8120,8 +8159,8 @@
       <c r="J145" t="s">
         <v>269</v>
       </c>
-      <c r="K145" s="1">
-        <v>26384</v>
+      <c r="K145" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -8130,7 +8169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>263</v>
       </c>
@@ -8138,16 +8177,16 @@
         <v>116</v>
       </c>
       <c r="C146" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="G146">
         <v>-27.332999999999998</v>
@@ -8159,10 +8198,10 @@
         <v>572</v>
       </c>
       <c r="J146" t="s">
-        <v>290</v>
-      </c>
-      <c r="K146" s="1">
-        <v>27971</v>
+        <v>269</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -8170,11 +8209,8 @@
       <c r="M146" t="s">
         <v>17</v>
       </c>
-      <c r="P146" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>263</v>
       </c>
@@ -8182,16 +8218,16 @@
         <v>116</v>
       </c>
       <c r="C147" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="G147">
         <v>-27.332999999999998</v>
@@ -8203,10 +8239,10 @@
         <v>572</v>
       </c>
       <c r="J147" t="s">
-        <v>290</v>
-      </c>
-      <c r="K147" s="1">
-        <v>27971</v>
+        <v>269</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -8214,11 +8250,8 @@
       <c r="M147" t="s">
         <v>17</v>
       </c>
-      <c r="P147" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>263</v>
       </c>
@@ -8226,16 +8259,16 @@
         <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G148">
         <v>-27.332999999999998</v>
@@ -8249,8 +8282,8 @@
       <c r="J148" t="s">
         <v>269</v>
       </c>
-      <c r="K148" s="1">
-        <v>26234</v>
+      <c r="K148" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -8259,7 +8292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>263</v>
       </c>
@@ -8267,16 +8300,16 @@
         <v>116</v>
       </c>
       <c r="C149" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="G149">
         <v>-27.332999999999998</v>
@@ -8288,10 +8321,10 @@
         <v>572</v>
       </c>
       <c r="J149" t="s">
-        <v>393</v>
-      </c>
-      <c r="K149" s="1">
-        <v>28005</v>
+        <v>269</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -8299,11 +8332,8 @@
       <c r="M149" t="s">
         <v>17</v>
       </c>
-      <c r="P149" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -8311,7 +8341,7 @@
         <v>116</v>
       </c>
       <c r="C150" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="D150" t="s">
         <v>25</v>
@@ -8320,7 +8350,7 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="G150">
         <v>-27.332999999999998</v>
@@ -8334,25 +8364,28 @@
       <c r="J150" t="s">
         <v>269</v>
       </c>
-      <c r="K150" s="1">
-        <v>26475</v>
+      <c r="K150" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
         <v>17</v>
+      </c>
+      <c r="P150" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B151" t="s">
         <v>116</v>
       </c>
       <c r="C151" t="s">
-        <v>92</v>
+        <v>309</v>
       </c>
       <c r="D151" t="s">
         <v>25</v>
@@ -8361,22 +8394,22 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="G151">
-        <v>-28.216999999999999</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H151">
-        <v>152.03299999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I151">
-        <v>467</v>
+        <v>572</v>
       </c>
       <c r="J151" t="s">
-        <v>16</v>
-      </c>
-      <c r="K151" s="1">
-        <v>25386</v>
+        <v>269</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -8384,14 +8417,8 @@
       <c r="M151" t="s">
         <v>17</v>
       </c>
-      <c r="O151" t="s">
-        <v>576</v>
-      </c>
-      <c r="P151" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>263</v>
       </c>
@@ -8399,16 +8426,16 @@
         <v>116</v>
       </c>
       <c r="C152" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="G152">
         <v>-27.332999999999998</v>
@@ -8422,17 +8449,14 @@
       <c r="J152" t="s">
         <v>269</v>
       </c>
-      <c r="K152" s="1">
-        <v>26426</v>
+      <c r="K152" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
         <v>17</v>
-      </c>
-      <c r="P152" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
@@ -8443,31 +8467,31 @@
         <v>116</v>
       </c>
       <c r="C153" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G153">
-        <v>-26.675000000000001</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H153">
-        <v>152.875</v>
+        <v>152.767</v>
       </c>
       <c r="I153">
-        <v>244</v>
+        <v>572</v>
       </c>
       <c r="J153" t="s">
-        <v>276</v>
-      </c>
-      <c r="K153" s="1">
-        <v>27269</v>
+        <v>269</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
@@ -8475,11 +8499,8 @@
       <c r="M153" t="s">
         <v>17</v>
       </c>
-      <c r="P153" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>263</v>
       </c>
@@ -8487,7 +8508,7 @@
         <v>116</v>
       </c>
       <c r="C154" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="D154" t="s">
         <v>25</v>
@@ -8496,22 +8517,22 @@
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G154">
-        <v>-26.667000000000002</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H154">
-        <v>152.86699999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I154">
-        <v>295</v>
+        <v>572</v>
       </c>
       <c r="J154" t="s">
-        <v>77</v>
-      </c>
-      <c r="K154" s="1">
-        <v>27543</v>
+        <v>269</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -8519,11 +8540,8 @@
       <c r="M154" t="s">
         <v>17</v>
       </c>
-      <c r="P154" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>263</v>
       </c>
@@ -8531,7 +8549,7 @@
         <v>116</v>
       </c>
       <c r="C155" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="D155" t="s">
         <v>25</v>
@@ -8540,22 +8558,22 @@
         <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="G155">
-        <v>-26.25</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H155">
-        <v>152.733</v>
+        <v>152.767</v>
       </c>
       <c r="I155">
-        <v>78</v>
+        <v>572</v>
       </c>
       <c r="J155" t="s">
-        <v>340</v>
-      </c>
-      <c r="K155" s="1">
-        <v>25078</v>
+        <v>269</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -8563,11 +8581,8 @@
       <c r="M155" t="s">
         <v>17</v>
       </c>
-      <c r="P155" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>263</v>
       </c>
@@ -8575,7 +8590,7 @@
         <v>116</v>
       </c>
       <c r="C156" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="D156" t="s">
         <v>25</v>
@@ -8584,13 +8599,22 @@
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>406</v>
+        <v>285</v>
+      </c>
+      <c r="G156">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H156">
+        <v>152.767</v>
+      </c>
+      <c r="I156">
+        <v>572</v>
       </c>
       <c r="J156" t="s">
-        <v>404</v>
-      </c>
-      <c r="K156" s="1">
-        <v>41855</v>
+        <v>292</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
@@ -8599,7 +8623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>263</v>
       </c>
@@ -8607,22 +8631,31 @@
         <v>116</v>
       </c>
       <c r="C157" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>408</v>
+        <v>317</v>
+      </c>
+      <c r="G157">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H157">
+        <v>152.767</v>
+      </c>
+      <c r="I157">
+        <v>572</v>
       </c>
       <c r="J157" t="s">
-        <v>404</v>
-      </c>
-      <c r="K157" s="1">
-        <v>41780</v>
+        <v>292</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -8631,7 +8664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -8639,7 +8672,7 @@
         <v>116</v>
       </c>
       <c r="C158" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D158" t="s">
         <v>25</v>
@@ -8650,11 +8683,20 @@
       <c r="F158" t="s">
         <v>285</v>
       </c>
+      <c r="G158">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H158">
+        <v>152.767</v>
+      </c>
+      <c r="I158">
+        <v>572</v>
+      </c>
       <c r="J158" t="s">
         <v>269</v>
       </c>
       <c r="K158" s="1">
-        <v>26200</v>
+        <v>26205</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
@@ -8662,8 +8704,11 @@
       <c r="M158" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P158" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>263</v>
       </c>
@@ -8671,39 +8716,51 @@
         <v>116</v>
       </c>
       <c r="C159" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D159" t="s">
         <v>25</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>285</v>
+      </c>
+      <c r="G159">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H159">
+        <v>152.767</v>
+      </c>
+      <c r="I159">
+        <v>572</v>
       </c>
       <c r="J159" t="s">
-        <v>319</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>320</v>
+        <v>269</v>
+      </c>
+      <c r="K159" s="1">
+        <v>26205</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
       </c>
       <c r="M159" t="s">
         <v>17</v>
+      </c>
+      <c r="P159" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
         <v>116</v>
       </c>
       <c r="C160" t="s">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="D160" t="s">
         <v>25</v>
@@ -8712,22 +8769,22 @@
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="G160">
-        <v>-28.062000000000001</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H160">
-        <v>152.36699999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I160">
-        <v>674</v>
+        <v>572</v>
       </c>
       <c r="J160" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="K160" s="1">
-        <v>41037</v>
+        <v>26205</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -8736,42 +8793,42 @@
         <v>17</v>
       </c>
       <c r="P160" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="G161">
-        <v>-27.917000000000002</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H161">
-        <v>153.167</v>
+        <v>152.767</v>
       </c>
       <c r="I161">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="J161" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="K161" s="1">
-        <v>8254</v>
+        <v>26205</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
@@ -8779,11 +8836,8 @@
       <c r="M161" t="s">
         <v>17</v>
       </c>
-      <c r="O161" t="s">
-        <v>576</v>
-      </c>
       <c r="P161" t="s">
-        <v>82</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -8794,7 +8848,7 @@
         <v>116</v>
       </c>
       <c r="C162" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -8803,13 +8857,22 @@
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>398</v>
+        <v>335</v>
+      </c>
+      <c r="G162">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H162">
+        <v>152.767</v>
+      </c>
+      <c r="I162">
+        <v>572</v>
       </c>
       <c r="J162" t="s">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="K162" s="1">
-        <v>37121</v>
+        <v>26384</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
@@ -8826,22 +8889,31 @@
         <v>116</v>
       </c>
       <c r="C163" t="s">
-        <v>411</v>
+        <v>267</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
         <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>412</v>
+        <v>268</v>
+      </c>
+      <c r="G163">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H163">
+        <v>152.767</v>
+      </c>
+      <c r="I163">
+        <v>572</v>
       </c>
       <c r="J163" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="K163" s="1">
-        <v>40787</v>
+        <v>26384</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
@@ -8850,39 +8922,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C164" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>581</v>
+        <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="G164">
-        <v>-27.333300000000001</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H164">
-        <v>152.76669999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I164">
         <v>572</v>
       </c>
       <c r="J164" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="K164" s="1">
-        <v>23437</v>
+        <v>27971</v>
       </c>
       <c r="L164" t="s">
         <v>17</v>
@@ -8891,7 +8963,7 @@
         <v>17</v>
       </c>
       <c r="P164" t="s">
-        <v>141</v>
+        <v>426</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
@@ -8902,22 +8974,31 @@
         <v>116</v>
       </c>
       <c r="C165" t="s">
-        <v>413</v>
+        <v>289</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>414</v>
+        <v>268</v>
+      </c>
+      <c r="G165">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H165">
+        <v>152.767</v>
+      </c>
+      <c r="I165">
+        <v>572</v>
       </c>
       <c r="J165" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="K165" s="1">
-        <v>40787</v>
+        <v>27971</v>
       </c>
       <c r="L165" t="s">
         <v>17</v>
@@ -8925,40 +9006,43 @@
       <c r="M165" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P165" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B166" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C166" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
       <c r="D166" t="s">
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>581</v>
+        <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="G166">
-        <v>-27.333300000000001</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H166">
-        <v>152.76669999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I166">
         <v>572</v>
       </c>
       <c r="J166" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K166" s="1">
-        <v>23437</v>
+        <v>26234</v>
       </c>
       <c r="L166" t="s">
         <v>17</v>
@@ -8966,19 +9050,16 @@
       <c r="M166" t="s">
         <v>17</v>
       </c>
-      <c r="P166" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B167" t="s">
         <v>116</v>
       </c>
       <c r="C167" t="s">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="D167" t="s">
         <v>13</v>
@@ -8987,22 +9068,22 @@
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="G167">
-        <v>-26.733000000000001</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H167">
-        <v>152.5</v>
+        <v>152.767</v>
       </c>
       <c r="I167">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="J167" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="K167" s="1">
-        <v>26986</v>
+        <v>28005</v>
       </c>
       <c r="L167" t="s">
         <v>17</v>
@@ -9010,22 +9091,19 @@
       <c r="M167" t="s">
         <v>17</v>
       </c>
-      <c r="O167" t="s">
-        <v>576</v>
-      </c>
       <c r="P167" t="s">
-        <v>78</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="D168" t="s">
         <v>25</v>
@@ -9034,31 +9112,28 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="G168">
-        <v>-17.2</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H168">
-        <v>145.66669999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I168">
-        <v>728</v>
+        <v>572</v>
       </c>
       <c r="J168" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K168" s="1">
-        <v>29742</v>
+        <v>26475</v>
       </c>
       <c r="L168" t="s">
         <v>17</v>
       </c>
       <c r="M168" t="s">
         <v>17</v>
-      </c>
-      <c r="P168" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
@@ -9069,7 +9144,7 @@
         <v>116</v>
       </c>
       <c r="C169" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
@@ -9078,98 +9153,107 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>410</v>
+        <v>345</v>
+      </c>
+      <c r="G169">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H169">
+        <v>152.767</v>
+      </c>
+      <c r="I169">
+        <v>572</v>
       </c>
       <c r="J169" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="K169" s="1">
-        <v>40787</v>
+        <v>26426</v>
       </c>
       <c r="L169" t="s">
         <v>17</v>
       </c>
       <c r="M169" t="s">
         <v>17</v>
+      </c>
+      <c r="P169" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C170" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="G170">
-        <v>-17.2</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H170">
-        <v>145.66669999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I170">
-        <v>728</v>
+        <v>572</v>
       </c>
       <c r="J170" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K170" s="1">
-        <v>29587</v>
+        <v>26200</v>
       </c>
       <c r="L170" t="s">
         <v>17</v>
       </c>
       <c r="M170" t="s">
         <v>17</v>
-      </c>
-      <c r="P170" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="D171" t="s">
         <v>25</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="F171" t="s">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="G171">
-        <v>-17.2</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="H171">
-        <v>145.66669999999999</v>
+        <v>152.767</v>
       </c>
       <c r="I171">
-        <v>728</v>
+        <v>572</v>
       </c>
       <c r="J171" t="s">
-        <v>245</v>
-      </c>
-      <c r="K171" s="1">
-        <v>29743</v>
+        <v>319</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="L171" t="s">
         <v>17</v>
@@ -9177,19 +9261,16 @@
       <c r="M171" t="s">
         <v>17</v>
       </c>
-      <c r="P171" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C172" t="s">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="D172" t="s">
         <v>13</v>
@@ -9198,22 +9279,28 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>217</v>
+        <v>285</v>
+      </c>
+      <c r="G172">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H172">
+        <v>152.767</v>
+      </c>
+      <c r="I172">
+        <v>572</v>
       </c>
       <c r="J172" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K172" s="1">
-        <v>27732</v>
+        <v>26209</v>
       </c>
       <c r="L172" t="s">
         <v>17</v>
       </c>
       <c r="M172" t="s">
         <v>17</v>
-      </c>
-      <c r="P172" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
@@ -9224,22 +9311,31 @@
         <v>116</v>
       </c>
       <c r="C173" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>265</v>
+        <v>285</v>
+      </c>
+      <c r="G173">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H173">
+        <v>152.767</v>
+      </c>
+      <c r="I173">
+        <v>572</v>
       </c>
       <c r="J173" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K173" s="1">
-        <v>39309</v>
+        <v>26201</v>
       </c>
       <c r="L173" t="s">
         <v>17</v>
@@ -9248,7 +9344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>263</v>
       </c>
@@ -9256,28 +9352,40 @@
         <v>116</v>
       </c>
       <c r="C174" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="G174">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H174">
+        <v>152.767</v>
+      </c>
+      <c r="I174">
+        <v>572</v>
       </c>
       <c r="J174" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="K174" s="1">
-        <v>26209</v>
+        <v>26082</v>
       </c>
       <c r="L174" t="s">
         <v>17</v>
       </c>
       <c r="M174" t="s">
         <v>17</v>
+      </c>
+      <c r="P174" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
@@ -9288,7 +9396,7 @@
         <v>116</v>
       </c>
       <c r="C175" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -9297,13 +9405,22 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="G175">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H175">
+        <v>152.767</v>
+      </c>
+      <c r="I175">
+        <v>572</v>
       </c>
       <c r="J175" t="s">
         <v>269</v>
       </c>
       <c r="K175" s="1">
-        <v>26201</v>
+        <v>26196</v>
       </c>
       <c r="L175" t="s">
         <v>17</v>
@@ -9320,66 +9437,78 @@
         <v>116</v>
       </c>
       <c r="C176" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="G176">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H176">
+        <v>152.767</v>
+      </c>
+      <c r="I176">
+        <v>572</v>
       </c>
       <c r="J176" t="s">
-        <v>333</v>
-      </c>
-      <c r="K176" s="1">
-        <v>26082</v>
+        <v>269</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="L176" t="s">
         <v>17</v>
       </c>
       <c r="M176" t="s">
         <v>17</v>
-      </c>
-      <c r="P176" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C177" t="s">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
+        <v>285</v>
+      </c>
+      <c r="G177">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H177">
+        <v>152.767</v>
+      </c>
+      <c r="I177">
+        <v>572</v>
       </c>
       <c r="J177" t="s">
-        <v>231</v>
-      </c>
-      <c r="K177" s="1">
-        <v>26414</v>
+        <v>269</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="L177" t="s">
         <v>17</v>
       </c>
       <c r="M177" t="s">
         <v>17</v>
-      </c>
-      <c r="P177" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
@@ -9390,7 +9519,7 @@
         <v>116</v>
       </c>
       <c r="C178" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
@@ -9399,13 +9528,22 @@
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>271</v>
+        <v>285</v>
+      </c>
+      <c r="G178">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H178">
+        <v>152.767</v>
+      </c>
+      <c r="I178">
+        <v>572</v>
       </c>
       <c r="J178" t="s">
-        <v>272</v>
-      </c>
-      <c r="K178" t="s">
-        <v>28</v>
+        <v>269</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="L178" t="s">
         <v>17</v>
@@ -9414,7 +9552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>263</v>
       </c>
@@ -9422,22 +9560,31 @@
         <v>116</v>
       </c>
       <c r="C179" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="G179">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H179">
+        <v>152.767</v>
+      </c>
+      <c r="I179">
+        <v>572</v>
       </c>
       <c r="J179" t="s">
         <v>269</v>
       </c>
       <c r="K179" s="1">
-        <v>26196</v>
+        <v>26201</v>
       </c>
       <c r="L179" t="s">
         <v>17</v>
@@ -9446,7 +9593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>263</v>
       </c>
@@ -9454,10 +9601,10 @@
         <v>116</v>
       </c>
       <c r="C180" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
@@ -9465,11 +9612,20 @@
       <c r="F180" t="s">
         <v>285</v>
       </c>
+      <c r="G180">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H180">
+        <v>152.767</v>
+      </c>
+      <c r="I180">
+        <v>572</v>
+      </c>
       <c r="J180" t="s">
         <v>269</v>
       </c>
-      <c r="K180" s="3" t="s">
-        <v>307</v>
+      <c r="K180" s="1">
+        <v>26201</v>
       </c>
       <c r="L180" t="s">
         <v>17</v>
@@ -9478,7 +9634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>263</v>
       </c>
@@ -9486,22 +9642,31 @@
         <v>116</v>
       </c>
       <c r="C181" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="D181" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="F181" t="s">
         <v>285</v>
       </c>
+      <c r="G181">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H181">
+        <v>152.767</v>
+      </c>
+      <c r="I181">
+        <v>572</v>
+      </c>
       <c r="J181" t="s">
         <v>269</v>
       </c>
-      <c r="K181" s="3" t="s">
-        <v>307</v>
+      <c r="K181" s="1">
+        <v>26201</v>
       </c>
       <c r="L181" t="s">
         <v>17</v>
@@ -9510,7 +9675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>263</v>
       </c>
@@ -9518,10 +9683,10 @@
         <v>116</v>
       </c>
       <c r="C182" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
@@ -9529,11 +9694,20 @@
       <c r="F182" t="s">
         <v>285</v>
       </c>
+      <c r="G182">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H182">
+        <v>152.767</v>
+      </c>
+      <c r="I182">
+        <v>572</v>
+      </c>
       <c r="J182" t="s">
         <v>269</v>
       </c>
-      <c r="K182" s="3" t="s">
-        <v>307</v>
+      <c r="K182" s="1">
+        <v>26201</v>
       </c>
       <c r="L182" t="s">
         <v>17</v>
@@ -9542,7 +9716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>263</v>
       </c>
@@ -9550,7 +9724,7 @@
         <v>116</v>
       </c>
       <c r="C183" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D183" t="s">
         <v>25</v>
@@ -9561,6 +9735,15 @@
       <c r="F183" t="s">
         <v>285</v>
       </c>
+      <c r="G183">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H183">
+        <v>152.767</v>
+      </c>
+      <c r="I183">
+        <v>572</v>
+      </c>
       <c r="J183" t="s">
         <v>269</v>
       </c>
@@ -9574,7 +9757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>263</v>
       </c>
@@ -9582,7 +9765,7 @@
         <v>116</v>
       </c>
       <c r="C184" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="D184" t="s">
         <v>25</v>
@@ -9593,6 +9776,15 @@
       <c r="F184" t="s">
         <v>285</v>
       </c>
+      <c r="G184">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H184">
+        <v>152.767</v>
+      </c>
+      <c r="I184">
+        <v>572</v>
+      </c>
       <c r="J184" t="s">
         <v>269</v>
       </c>
@@ -9606,7 +9798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>263</v>
       </c>
@@ -9614,17 +9806,26 @@
         <v>116</v>
       </c>
       <c r="C185" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="D185" t="s">
         <v>25</v>
       </c>
       <c r="E185" t="s">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="F185" t="s">
         <v>285</v>
       </c>
+      <c r="G185">
+        <v>-27.332999999999998</v>
+      </c>
+      <c r="H185">
+        <v>152.767</v>
+      </c>
+      <c r="I185">
+        <v>572</v>
+      </c>
       <c r="J185" t="s">
         <v>269</v>
       </c>
@@ -9638,30 +9839,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B186" t="s">
         <v>116</v>
       </c>
       <c r="C186" t="s">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>285</v>
+        <v>76</v>
+      </c>
+      <c r="G186">
+        <v>-26.733000000000001</v>
+      </c>
+      <c r="H186">
+        <v>152.5</v>
+      </c>
+      <c r="I186">
+        <v>624</v>
       </c>
       <c r="J186" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="K186" s="1">
-        <v>26201</v>
+        <v>26986</v>
       </c>
       <c r="L186" t="s">
         <v>17</v>
@@ -9669,8 +9879,14 @@
       <c r="M186" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O186" t="s">
+        <v>576</v>
+      </c>
+      <c r="P186" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>263</v>
       </c>
@@ -9678,7 +9894,7 @@
         <v>116</v>
       </c>
       <c r="C187" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D187" t="s">
         <v>25</v>
@@ -9687,13 +9903,22 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>285</v>
+        <v>408</v>
+      </c>
+      <c r="G187">
+        <v>-26.677</v>
+      </c>
+      <c r="H187">
+        <v>152.57300000000001</v>
+      </c>
+      <c r="I187">
+        <v>706</v>
       </c>
       <c r="J187" t="s">
-        <v>269</v>
+        <v>404</v>
       </c>
       <c r="K187" s="1">
-        <v>26201</v>
+        <v>41780</v>
       </c>
       <c r="L187" t="s">
         <v>17</v>
@@ -9702,7 +9927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>263</v>
       </c>
@@ -9710,7 +9935,7 @@
         <v>116</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="D188" t="s">
         <v>25</v>
@@ -9719,13 +9944,22 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="G188">
+        <v>-26.675000000000001</v>
+      </c>
+      <c r="H188">
+        <v>152.875</v>
+      </c>
+      <c r="I188">
+        <v>244</v>
       </c>
       <c r="J188" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K188" s="1">
-        <v>26201</v>
+        <v>27269</v>
       </c>
       <c r="L188" t="s">
         <v>17</v>
@@ -9733,8 +9967,11 @@
       <c r="M188" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P188" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>263</v>
       </c>
@@ -9742,7 +9979,7 @@
         <v>116</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="D189" t="s">
         <v>25</v>
@@ -9751,13 +9988,22 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="G189">
+        <v>-26.667000000000002</v>
+      </c>
+      <c r="H189">
+        <v>152.86699999999999</v>
+      </c>
+      <c r="I189">
+        <v>295</v>
       </c>
       <c r="J189" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="K189" s="1">
-        <v>26201</v>
+        <v>27543</v>
       </c>
       <c r="L189" t="s">
         <v>17</v>
@@ -9765,16 +10011,19 @@
       <c r="M189" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P189" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B190" t="s">
         <v>116</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>397</v>
       </c>
       <c r="D190" t="s">
         <v>13</v>
@@ -9783,13 +10032,22 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
+        <v>398</v>
+      </c>
+      <c r="G190">
+        <v>-26.606000000000002</v>
+      </c>
+      <c r="H190">
+        <v>152.85499999999999</v>
+      </c>
+      <c r="I190">
+        <v>388</v>
       </c>
       <c r="J190" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="K190" s="1">
-        <v>41844</v>
+        <v>37121</v>
       </c>
       <c r="L190" t="s">
         <v>17</v>
@@ -9800,13 +10058,13 @@
     </row>
     <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
         <v>116</v>
       </c>
       <c r="C191" t="s">
-        <v>58</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
         <v>25</v>
@@ -9815,13 +10073,22 @@
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>406</v>
+      </c>
+      <c r="G191">
+        <v>-26.292000000000002</v>
+      </c>
+      <c r="H191">
+        <v>152.328</v>
+      </c>
+      <c r="I191">
+        <v>530</v>
       </c>
       <c r="J191" t="s">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="K191" s="1">
-        <v>41053</v>
+        <v>41855</v>
       </c>
       <c r="L191" t="s">
         <v>17</v>
@@ -9829,19 +10096,16 @@
       <c r="M191" t="s">
         <v>17</v>
       </c>
-      <c r="P191" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B192" t="s">
         <v>116</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>402</v>
       </c>
       <c r="D192" t="s">
         <v>13</v>
@@ -9850,54 +10114,72 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>403</v>
+      </c>
+      <c r="G192">
+        <v>-26.282</v>
+      </c>
+      <c r="H192">
+        <v>152.83199999999999</v>
+      </c>
+      <c r="I192">
+        <v>315</v>
       </c>
       <c r="J192" t="s">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="K192" s="1">
-        <v>41053</v>
+        <v>41882</v>
       </c>
       <c r="L192" t="s">
         <v>17</v>
       </c>
       <c r="M192" t="s">
         <v>17</v>
-      </c>
-      <c r="P192" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B193" t="s">
         <v>116</v>
       </c>
       <c r="C193" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>372</v>
+      </c>
+      <c r="G193">
+        <v>-26.25</v>
+      </c>
+      <c r="H193">
+        <v>152.733</v>
+      </c>
+      <c r="I193">
+        <v>78</v>
       </c>
       <c r="J193" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="K193" s="1">
-        <v>41053</v>
+        <v>25078</v>
       </c>
       <c r="L193" t="s">
         <v>17</v>
       </c>
       <c r="M193" t="s">
         <v>17</v>
+      </c>
+      <c r="P193" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -9905,25 +10187,34 @@
         <v>117</v>
       </c>
       <c r="B194" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>226</v>
+      </c>
+      <c r="G194">
+        <v>-17.2</v>
+      </c>
+      <c r="H194">
+        <v>145.66669999999999</v>
+      </c>
+      <c r="I194">
+        <v>728</v>
       </c>
       <c r="J194" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="K194" s="1">
-        <v>41053</v>
+        <v>29742</v>
       </c>
       <c r="L194" t="s">
         <v>17</v>
@@ -9932,7 +10223,7 @@
         <v>17</v>
       </c>
       <c r="P194" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -9940,25 +10231,34 @@
         <v>117</v>
       </c>
       <c r="B195" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C195" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="D195" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>226</v>
+      </c>
+      <c r="G195">
+        <v>-17.2</v>
+      </c>
+      <c r="H195">
+        <v>145.66669999999999</v>
+      </c>
+      <c r="I195">
+        <v>728</v>
       </c>
       <c r="J195" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="K195" s="1">
-        <v>41053</v>
+        <v>29587</v>
       </c>
       <c r="L195" t="s">
         <v>17</v>
@@ -9967,7 +10267,7 @@
         <v>17</v>
       </c>
       <c r="P195" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -9975,31 +10275,43 @@
         <v>117</v>
       </c>
       <c r="B196" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C196" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="D196" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>65</v>
+        <v>226</v>
+      </c>
+      <c r="G196">
+        <v>-17.2</v>
+      </c>
+      <c r="H196">
+        <v>145.66669999999999</v>
+      </c>
+      <c r="I196">
+        <v>728</v>
       </c>
       <c r="J196" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="K196" s="1">
-        <v>39183</v>
+        <v>29743</v>
       </c>
       <c r="L196" t="s">
         <v>17</v>
       </c>
       <c r="M196" t="s">
         <v>17</v>
+      </c>
+      <c r="P196" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -10292,15 +10604,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>263</v>
       </c>
       <c r="B207" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C207" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D207" t="s">
         <v>25</v>
@@ -10309,13 +10621,13 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="J207" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K207" s="1">
-        <v>33096</v>
+        <v>40787</v>
       </c>
       <c r="L207" t="s">
         <v>17</v>
@@ -10324,30 +10636,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>263</v>
       </c>
       <c r="B208" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C208" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="J208" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K208" s="1">
-        <v>33096</v>
+        <v>40787</v>
       </c>
       <c r="L208" t="s">
         <v>17</v>
@@ -10361,10 +10673,10 @@
         <v>263</v>
       </c>
       <c r="B209" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C209" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -10373,22 +10685,19 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="J209" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K209" s="1">
-        <v>33096</v>
+        <v>40787</v>
       </c>
       <c r="L209" t="s">
         <v>17</v>
       </c>
       <c r="M209" t="s">
         <v>17</v>
-      </c>
-      <c r="P209" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -10486,34 +10795,25 @@
         <v>117</v>
       </c>
       <c r="B213" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C213" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="D213" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>582</v>
-      </c>
-      <c r="G213">
-        <v>-28.227</v>
-      </c>
-      <c r="H213">
-        <v>152.42599999999999</v>
-      </c>
-      <c r="I213">
-        <v>973</v>
+        <v>217</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K213" s="1">
-        <v>39578</v>
+        <v>27732</v>
       </c>
       <c r="L213" t="s">
         <v>17</v>
@@ -10522,33 +10822,33 @@
         <v>17</v>
       </c>
       <c r="P213" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B214" t="s">
         <v>116</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="J214" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="K214" s="1">
-        <v>41028</v>
+        <v>39309</v>
       </c>
       <c r="L214" t="s">
         <v>17</v>
@@ -10583,15 +10883,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B216" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="C216" t="s">
-        <v>442</v>
+        <v>145</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
@@ -10600,19 +10900,22 @@
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="J216" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K216" s="1">
-        <v>33039</v>
+        <v>26414</v>
       </c>
       <c r="L216" t="s">
         <v>17</v>
       </c>
       <c r="M216" t="s">
         <v>17</v>
+      </c>
+      <c r="P216" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -10704,25 +11007,25 @@
         <v>263</v>
       </c>
       <c r="B220" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C220" t="s">
-        <v>443</v>
+        <v>270</v>
       </c>
       <c r="D220" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>447</v>
+        <v>271</v>
       </c>
       <c r="J220" t="s">
+        <v>272</v>
+      </c>
+      <c r="K220" t="s">
         <v>28</v>
-      </c>
-      <c r="K220" s="1">
-        <v>33832</v>
       </c>
       <c r="L220" t="s">
         <v>17</v>
@@ -10739,40 +11042,28 @@
         <v>116</v>
       </c>
       <c r="C221" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E221" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
-      </c>
-      <c r="G221">
-        <v>-28.062000000000001</v>
-      </c>
-      <c r="H221">
-        <v>152.36699999999999</v>
-      </c>
-      <c r="I221">
-        <v>674</v>
+        <v>22</v>
       </c>
       <c r="J221" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K221" s="1">
-        <v>41037</v>
+        <v>41844</v>
       </c>
       <c r="L221" t="s">
         <v>17</v>
       </c>
       <c r="M221" t="s">
         <v>17</v>
-      </c>
-      <c r="P221" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -10783,7 +11074,7 @@
         <v>116</v>
       </c>
       <c r="C222" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D222" t="s">
         <v>25</v>
@@ -10792,13 +11083,13 @@
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K222" s="1">
-        <v>41147</v>
+        <v>41053</v>
       </c>
       <c r="L222" t="s">
         <v>17</v>
@@ -10807,7 +11098,7 @@
         <v>17</v>
       </c>
       <c r="P222" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -10818,22 +11109,22 @@
         <v>116</v>
       </c>
       <c r="C223" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="J223" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K223" s="1">
-        <v>41147</v>
+        <v>41053</v>
       </c>
       <c r="L223" t="s">
         <v>17</v>
@@ -10842,7 +11133,7 @@
         <v>17</v>
       </c>
       <c r="P223" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -11143,7 +11434,7 @@
         <v>116</v>
       </c>
       <c r="C234" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D234" t="s">
         <v>13</v>
@@ -11152,22 +11443,19 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K234" s="1">
-        <v>41146</v>
+        <v>41053</v>
       </c>
       <c r="L234" t="s">
         <v>17</v>
       </c>
       <c r="M234" t="s">
         <v>17</v>
-      </c>
-      <c r="P234" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -11210,31 +11498,22 @@
         <v>116</v>
       </c>
       <c r="C236" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>103</v>
-      </c>
-      <c r="G236">
-        <v>-27.988</v>
-      </c>
-      <c r="H236">
-        <v>152.36000000000001</v>
-      </c>
-      <c r="I236">
-        <v>936</v>
+        <v>36</v>
       </c>
       <c r="J236" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="K236" s="1">
-        <v>42881</v>
+        <v>41053</v>
       </c>
       <c r="L236" t="s">
         <v>17</v>
@@ -11243,7 +11522,7 @@
         <v>17</v>
       </c>
       <c r="P236" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -11254,7 +11533,7 @@
         <v>116</v>
       </c>
       <c r="C237" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D237" t="s">
         <v>25</v>
@@ -11263,22 +11542,13 @@
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>110</v>
-      </c>
-      <c r="G237">
-        <v>-30.497</v>
-      </c>
-      <c r="H237">
-        <v>152.399</v>
-      </c>
-      <c r="I237">
-        <v>1393</v>
+        <v>36</v>
       </c>
       <c r="J237" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="K237" s="1">
-        <v>41774</v>
+        <v>41053</v>
       </c>
       <c r="L237" t="s">
         <v>17</v>
@@ -11287,7 +11557,7 @@
         <v>17</v>
       </c>
       <c r="P237" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -11446,40 +11716,28 @@
         <v>116</v>
       </c>
       <c r="C243" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>114</v>
-      </c>
-      <c r="G243">
-        <v>-30.632000000000001</v>
-      </c>
-      <c r="H243">
-        <v>152.197</v>
-      </c>
-      <c r="I243">
-        <v>941</v>
+        <v>65</v>
       </c>
       <c r="J243" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="K243" s="1">
-        <v>41774</v>
+        <v>39183</v>
       </c>
       <c r="L243" t="s">
         <v>17</v>
       </c>
       <c r="M243" t="s">
         <v>17</v>
-      </c>
-      <c r="P243" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -11490,31 +11748,28 @@
         <v>116</v>
       </c>
       <c r="C244" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J244" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K244" s="1">
-        <v>39578</v>
+        <v>41028</v>
       </c>
       <c r="L244" t="s">
         <v>17</v>
       </c>
       <c r="M244" t="s">
         <v>17</v>
-      </c>
-      <c r="P244" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -11525,7 +11780,7 @@
         <v>116</v>
       </c>
       <c r="C245" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D245" t="s">
         <v>25</v>
@@ -11534,22 +11789,13 @@
         <v>14</v>
       </c>
       <c r="F245" t="s">
-        <v>55</v>
-      </c>
-      <c r="G245">
-        <v>-27.981000000000002</v>
-      </c>
-      <c r="H245">
-        <v>152.34700000000001</v>
-      </c>
-      <c r="I245">
-        <v>710</v>
+        <v>73</v>
       </c>
       <c r="J245" t="s">
         <v>52</v>
       </c>
       <c r="K245" s="1">
-        <v>41148</v>
+        <v>41147</v>
       </c>
       <c r="L245" t="s">
         <v>17</v>
@@ -11558,7 +11804,7 @@
         <v>17</v>
       </c>
       <c r="P245" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -11569,7 +11815,7 @@
         <v>116</v>
       </c>
       <c r="C246" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D246" t="s">
         <v>25</v>
@@ -11578,22 +11824,13 @@
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>51</v>
-      </c>
-      <c r="G246">
-        <v>-27.981000000000002</v>
-      </c>
-      <c r="H246">
-        <v>152.34700000000001</v>
-      </c>
-      <c r="I246">
-        <v>710</v>
+        <v>90</v>
       </c>
       <c r="J246" t="s">
         <v>52</v>
       </c>
       <c r="K246" s="1">
-        <v>41148</v>
+        <v>41147</v>
       </c>
       <c r="L246" t="s">
         <v>17</v>
@@ -11602,33 +11839,33 @@
         <v>17</v>
       </c>
       <c r="P246" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B247" t="s">
         <v>116</v>
       </c>
       <c r="C247" t="s">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>416</v>
+        <v>42</v>
       </c>
       <c r="J247" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K247" s="1">
-        <v>40817</v>
+        <v>39578</v>
       </c>
       <c r="L247" t="s">
         <v>17</v>
@@ -11636,31 +11873,34 @@
       <c r="M247" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P247" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B248" t="s">
         <v>116</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>415</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>26</v>
+        <v>416</v>
       </c>
       <c r="J248" t="s">
-        <v>27</v>
-      </c>
-      <c r="K248" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="K248" s="1">
+        <v>40817</v>
       </c>
       <c r="L248" t="s">
         <v>17</v>
@@ -11677,13 +11917,13 @@
         <v>116</v>
       </c>
       <c r="C249" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E249" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F249" t="s">
         <v>26</v>
@@ -11709,22 +11949,22 @@
         <v>116</v>
       </c>
       <c r="C250" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E250" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J250" t="s">
-        <v>43</v>
-      </c>
-      <c r="K250" s="1">
-        <v>41053</v>
+        <v>27</v>
+      </c>
+      <c r="K250" t="s">
+        <v>28</v>
       </c>
       <c r="L250" t="s">
         <v>17</v>
@@ -11733,30 +11973,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B251" t="s">
         <v>116</v>
       </c>
       <c r="C251" t="s">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>403</v>
+        <v>36</v>
       </c>
       <c r="J251" t="s">
-        <v>404</v>
+        <v>43</v>
       </c>
       <c r="K251" s="1">
-        <v>41882</v>
+        <v>41053</v>
       </c>
       <c r="L251" t="s">
         <v>17</v>
@@ -11798,14 +12038,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A252">
+  <autoFilter ref="A1:P252">
     <filterColumn colId="0">
       <filters>
         <filter val="subtropicus"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Female"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState ref="A2:P251">
+  <sortState ref="A2:P252">
     <sortCondition ref="G1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Antechinus_cranialvariation_data.xlsx
+++ b/Data/Antechinus_cranialvariation_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="592">
   <si>
     <t>Species</t>
   </si>
@@ -1852,6 +1852,12 @@
   </si>
   <si>
     <t>qm or bust - but this will be an agilis!! If locality is correct, it should be omitted from your analysis</t>
+  </si>
+  <si>
+    <t>J17407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holotype specimen. </t>
   </si>
 </sst>
 </file>
@@ -2198,10 +2204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q252"/>
+  <dimension ref="A1:Q253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K222" sqref="K222"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K246" sqref="K246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12027,13 +12033,22 @@
         <v>64</v>
       </c>
       <c r="D247" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
       </c>
       <c r="F247" t="s">
         <v>65</v>
+      </c>
+      <c r="G247">
+        <v>-28.23</v>
+      </c>
+      <c r="H247">
+        <v>153.13499999999999</v>
+      </c>
+      <c r="I247">
+        <v>828</v>
       </c>
       <c r="J247" t="s">
         <v>66</v>
@@ -12070,6 +12085,15 @@
       <c r="F248" t="s">
         <v>73</v>
       </c>
+      <c r="G248">
+        <v>-28.606999999999999</v>
+      </c>
+      <c r="H248">
+        <v>153.37700000000001</v>
+      </c>
+      <c r="I248">
+        <v>289</v>
+      </c>
       <c r="J248" t="s">
         <v>52</v>
       </c>
@@ -12105,6 +12129,15 @@
       <c r="F249" t="s">
         <v>89</v>
       </c>
+      <c r="G249">
+        <v>-28.398</v>
+      </c>
+      <c r="H249">
+        <v>153.285</v>
+      </c>
+      <c r="I249">
+        <v>491</v>
+      </c>
       <c r="J249" t="s">
         <v>52</v>
       </c>
@@ -12175,6 +12208,15 @@
       <c r="F251" t="s">
         <v>262</v>
       </c>
+      <c r="G251">
+        <v>-27.329000000000001</v>
+      </c>
+      <c r="H251">
+        <v>152.75800000000001</v>
+      </c>
+      <c r="I251">
+        <v>572</v>
+      </c>
       <c r="J251" t="s">
         <v>263</v>
       </c>
@@ -12224,6 +12266,50 @@
       </c>
       <c r="Q252" s="7" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" t="s">
+        <v>114</v>
+      </c>
+      <c r="C253" t="s">
+        <v>590</v>
+      </c>
+      <c r="D253" t="s">
+        <v>25</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" t="s">
+        <v>15</v>
+      </c>
+      <c r="G253">
+        <v>-28.216999999999999</v>
+      </c>
+      <c r="H253">
+        <v>152.03299999999999</v>
+      </c>
+      <c r="I253">
+        <v>467</v>
+      </c>
+      <c r="J253" t="s">
+        <v>16</v>
+      </c>
+      <c r="K253" s="1">
+        <v>25386</v>
+      </c>
+      <c r="L253" t="s">
+        <v>17</v>
+      </c>
+      <c r="M253" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q253" s="7" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
